--- a/Lakshdweep Loksabha data.xlsx
+++ b/Lakshdweep Loksabha data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6b038fdb6c877ec/Desktop/InfosysProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{C1E3C605-A134-480F-BDE9-A540FE805460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{385464BB-96FD-47F4-8FAB-3BC772FC33ED}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{C1E3C605-A134-480F-BDE9-A540FE805460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6BCD150-098C-40C6-A947-F2F80F230C6B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47CD064C-FBF8-43AE-AEC1-6C43819A17CD}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
     <t>INC</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Arrow</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,10 +621,10 @@
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="3">
         <v>14505</v>
@@ -665,10 +665,10 @@
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="3">
         <v>14977</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="4">
         <v>0</v>
@@ -691,28 +691,28 @@
         <v>1977</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="3">
         <v>19471</v>
@@ -735,28 +735,28 @@
         <v>1980</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="J5" s="3">
         <v>20117</v>
@@ -779,28 +779,28 @@
         <v>1984</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="3">
         <v>21964</v>
@@ -823,28 +823,28 @@
         <v>1989</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="3">
         <v>30069</v>
@@ -867,28 +867,28 @@
         <v>1991</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="3">
         <v>31665</v>
@@ -911,28 +911,28 @@
         <v>1996</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" s="3">
         <v>34111</v>
@@ -955,28 +955,28 @@
         <v>1998</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="3">
         <v>36738</v>
@@ -999,28 +999,28 @@
         <v>1999</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="3">
         <v>37619</v>
@@ -1043,28 +1043,28 @@
         <v>2004</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="3">
         <v>39033</v>
@@ -1087,28 +1087,28 @@
         <v>2009</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="3">
         <v>45983</v>
@@ -1131,28 +1131,28 @@
         <v>2014</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="J14" s="3">
         <v>49922</v>
@@ -1175,28 +1175,28 @@
         <v>2019</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="J15" s="3">
         <v>55057</v>
@@ -1219,28 +1219,28 @@
         <v>2024</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="3">
         <v>57784</v>

--- a/Lakshdweep Loksabha data.xlsx
+++ b/Lakshdweep Loksabha data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6b038fdb6c877ec/Desktop/InfosysProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{C1E3C605-A134-480F-BDE9-A540FE805460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6BCD150-098C-40C6-A947-F2F80F230C6B}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{C1E3C605-A134-480F-BDE9-A540FE805460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6166178C-FF2F-4F88-BD56-C37E6F4D027E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47CD064C-FBF8-43AE-AEC1-6C43819A17CD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="36">
   <si>
     <t>YEAR</t>
   </si>
@@ -69,9 +69,6 @@
     <t>TOTAL NO. OF VOTERS</t>
   </si>
   <si>
-    <t>MARGIN</t>
-  </si>
-  <si>
     <t>VOTE %</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>INC</t>
-  </si>
-  <si>
-    <t>Uncontested</t>
   </si>
   <si>
     <t>Lakshadweep</t>
@@ -536,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640DE9DF-B77D-4031-A750-D3DAD980DBAD}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,9 +546,10 @@
     <col min="6" max="6" width="14.109375" customWidth="1"/>
     <col min="7" max="7" width="9.21875" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,45 +563,42 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1967</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -618,39 +610,36 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="I2" s="3">
+        <v>14505</v>
       </c>
       <c r="J2" s="3">
-        <v>14505</v>
-      </c>
-      <c r="K2" s="3">
         <v>11897</v>
       </c>
-      <c r="L2" s="3">
-        <v>386</v>
-      </c>
-      <c r="M2" s="4">
+      <c r="K2" s="4">
         <v>0.82020000000000004</v>
       </c>
-      <c r="N2" s="3">
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="3">
         <v>11897</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1971</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -665,80 +654,74 @@
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="I3" s="3">
+        <v>14977</v>
       </c>
       <c r="J3" s="3">
-        <v>14977</v>
-      </c>
-      <c r="K3" s="3">
         <v>0</v>
       </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="4">
+        <v>14</v>
+      </c>
+      <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:13" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1977</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="I4" s="3">
+        <v>19471</v>
       </c>
       <c r="J4" s="3">
-        <v>19471</v>
-      </c>
-      <c r="K4" s="3">
         <v>16480</v>
       </c>
-      <c r="L4" s="3">
-        <v>2814</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="K4" s="4">
         <v>0.84640000000000004</v>
       </c>
-      <c r="N4" s="3">
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3">
         <v>16480</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1980</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -747,514 +730,478 @@
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
+      <c r="I5" s="3">
+        <v>20117</v>
       </c>
       <c r="J5" s="3">
-        <v>20117</v>
-      </c>
-      <c r="K5" s="3">
         <v>17860</v>
       </c>
-      <c r="L5" s="3">
-        <v>2949</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="K5" s="4">
         <v>0.88780000000000003</v>
       </c>
-      <c r="N5" s="3">
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3">
         <v>17860</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1984</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="I6" s="3">
+        <v>21964</v>
       </c>
       <c r="J6" s="3">
-        <v>21964</v>
-      </c>
-      <c r="K6" s="3">
         <v>19105</v>
       </c>
-      <c r="L6" s="3">
-        <v>6940</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="K6" s="4">
         <v>0.86980000000000002</v>
       </c>
-      <c r="N6" s="3">
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="3">
         <v>19105</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1989</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="I7" s="3">
+        <v>30069</v>
       </c>
       <c r="J7" s="3">
-        <v>30069</v>
-      </c>
-      <c r="K7" s="3">
         <v>25555</v>
       </c>
-      <c r="L7" s="3">
-        <v>1156</v>
-      </c>
-      <c r="M7" s="4">
+      <c r="K7" s="4">
         <v>0.84989999999999999</v>
       </c>
-      <c r="N7" s="3">
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="3">
         <v>25555</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1991</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="I8" s="3">
+        <v>31665</v>
       </c>
       <c r="J8" s="3">
-        <v>31665</v>
-      </c>
-      <c r="K8" s="3">
         <v>25449</v>
       </c>
-      <c r="L8" s="3">
-        <v>281</v>
-      </c>
-      <c r="M8" s="4">
+      <c r="K8" s="4">
         <v>0.80369999999999997</v>
       </c>
-      <c r="N8" s="3">
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3">
         <v>25449</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>1996</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="I9" s="3">
+        <v>34111</v>
       </c>
       <c r="J9" s="3">
-        <v>34111</v>
-      </c>
-      <c r="K9" s="3">
         <v>30373</v>
       </c>
-      <c r="L9" s="3">
-        <v>1034</v>
-      </c>
-      <c r="M9" s="4">
+      <c r="K9" s="4">
         <v>0.89039999999999997</v>
       </c>
-      <c r="N9" s="3">
+      <c r="L9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="3">
         <v>30373</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>1998</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="I10" s="3">
+        <v>36738</v>
       </c>
       <c r="J10" s="3">
-        <v>36738</v>
-      </c>
-      <c r="K10" s="3">
         <v>31238</v>
       </c>
-      <c r="L10" s="3">
-        <v>1166</v>
-      </c>
-      <c r="M10" s="4">
+      <c r="K10" s="4">
         <v>0.85029999999999994</v>
       </c>
-      <c r="N10" s="3">
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="3">
         <v>31238</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>1999</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="I11" s="3">
+        <v>37619</v>
       </c>
       <c r="J11" s="3">
-        <v>37619</v>
-      </c>
-      <c r="K11" s="3">
         <v>30174</v>
       </c>
-      <c r="L11" s="3">
-        <v>3189</v>
-      </c>
-      <c r="M11" s="4">
+      <c r="K11" s="4">
         <v>0.80210000000000004</v>
       </c>
-      <c r="N11" s="3">
+      <c r="L11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="3">
         <v>30174</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2004</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="I12" s="3">
+        <v>39033</v>
       </c>
       <c r="J12" s="3">
-        <v>39033</v>
-      </c>
-      <c r="K12" s="3">
         <v>31820</v>
       </c>
-      <c r="L12" s="3">
-        <v>71</v>
-      </c>
-      <c r="M12" s="4">
+      <c r="K12" s="4">
         <v>0.81520000000000004</v>
       </c>
-      <c r="N12" s="3">
+      <c r="L12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="3">
         <v>31820</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>2009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="I13" s="3">
+        <v>45983</v>
       </c>
       <c r="J13" s="3">
-        <v>45983</v>
-      </c>
-      <c r="K13" s="3">
         <v>39498</v>
       </c>
-      <c r="L13" s="3">
-        <v>2198</v>
-      </c>
-      <c r="M13" s="4">
+      <c r="K13" s="4">
         <v>0.85899999999999999</v>
       </c>
-      <c r="N13" s="3">
+      <c r="L13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="3">
         <v>39498</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2014</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>34</v>
+      <c r="I14" s="3">
+        <v>49922</v>
       </c>
       <c r="J14" s="3">
-        <v>49922</v>
-      </c>
-      <c r="K14" s="3">
         <v>43242</v>
       </c>
-      <c r="L14" s="3">
-        <v>1535</v>
-      </c>
-      <c r="M14" s="4">
+      <c r="K14" s="4">
         <v>0.86609999999999998</v>
       </c>
-      <c r="N14" s="3">
+      <c r="L14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="3">
         <v>43242</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2019</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>34</v>
+      <c r="I15" s="3">
+        <v>55057</v>
       </c>
       <c r="J15" s="3">
-        <v>55057</v>
-      </c>
-      <c r="K15" s="3">
         <v>46909</v>
       </c>
-      <c r="L15" s="3">
-        <v>823</v>
-      </c>
-      <c r="M15" s="4">
+      <c r="K15" s="4">
         <v>0.85209999999999997</v>
       </c>
-      <c r="N15" s="3">
+      <c r="L15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="3">
         <v>46909</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2024</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="I16" s="3">
+        <v>57784</v>
       </c>
       <c r="J16" s="3">
-        <v>57784</v>
-      </c>
-      <c r="K16" s="3">
         <v>49200</v>
       </c>
-      <c r="L16" s="3">
-        <v>2647</v>
-      </c>
-      <c r="M16" s="4">
+      <c r="K16" s="4">
         <v>0.85140000000000005</v>
       </c>
-      <c r="N16" s="3">
+      <c r="L16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="3">
         <v>49200</v>
       </c>
     </row>
